--- a/app/outputs/Jane Smith.xlsx
+++ b/app/outputs/Jane Smith.xlsx
@@ -868,7 +868,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>From 26/10/2024 to 02/11/2024</t>
+          <t xml:space="preserve">From  to </t>
         </is>
       </c>
       <c r="L13" s="32" t="n"/>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="C20" s="39" t="n"/>
       <c r="D20" s="11" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E20" s="12" t="inlineStr">
         <is>
@@ -1086,22 +1086,14 @@
           <t>Subject Title:</t>
         </is>
       </c>
-      <c r="C24" s="36" t="inlineStr">
-        <is>
-          <t>Data Structures</t>
-        </is>
-      </c>
+      <c r="C24" s="36" t="n"/>
       <c r="D24" s="37" t="n"/>
       <c r="H24" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Subject Code: </t>
         </is>
       </c>
-      <c r="I24" s="38" t="inlineStr">
-        <is>
-          <t>DCS1102</t>
-        </is>
-      </c>
+      <c r="I24" s="38" t="n"/>
       <c r="L24" s="32" t="n"/>
     </row>
     <row r="25">
@@ -1111,11 +1103,6 @@
           <t>Subject Level:</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Foundation</t>
-        </is>
-      </c>
       <c r="D25" s="16" t="n"/>
       <c r="L25" s="32" t="n"/>
     </row>
@@ -1130,11 +1117,6 @@
           <t>Teaching Period:</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>From 26/10/2024 to 09/11/2024</t>
-        </is>
-      </c>
       <c r="L27" s="32" t="n"/>
     </row>
     <row r="28" ht="9.949999999999999" customHeight="1">
@@ -1148,17 +1130,13 @@
           <t>Lecture:</t>
         </is>
       </c>
-      <c r="D29" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="D29" s="10" t="n"/>
       <c r="E29" s="1" t="inlineStr">
         <is>
           <t>hours per week x</t>
         </is>
       </c>
-      <c r="G29" s="10" t="n">
-        <v>14</v>
-      </c>
+      <c r="G29" s="10" t="n"/>
       <c r="H29" s="1" t="inlineStr">
         <is>
           <t>weeks =</t>
@@ -1182,17 +1160,13 @@
           <t>Tutorial:</t>
         </is>
       </c>
-      <c r="D30" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D30" s="10" t="n"/>
       <c r="E30" s="1" t="inlineStr">
         <is>
           <t>hours per week x</t>
         </is>
       </c>
-      <c r="G30" s="10" t="n">
-        <v>14</v>
-      </c>
+      <c r="G30" s="10" t="n"/>
       <c r="H30" s="1" t="inlineStr">
         <is>
           <t>weeks =</t>
@@ -1216,17 +1190,13 @@
           <t>Blended Learning:</t>
         </is>
       </c>
-      <c r="D31" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D31" s="10" t="n"/>
       <c r="E31" s="1" t="inlineStr">
         <is>
           <t>hours per week x</t>
         </is>
       </c>
-      <c r="G31" s="10" t="n">
-        <v>14</v>
-      </c>
+      <c r="G31" s="10" t="n"/>
       <c r="H31" s="1" t="inlineStr">
         <is>
           <t>weeks =</t>
@@ -1250,17 +1220,13 @@
           <t>Lab:</t>
         </is>
       </c>
-      <c r="D32" s="10" t="n">
-        <v>2</v>
-      </c>
+      <c r="D32" s="10" t="n"/>
       <c r="E32" s="1" t="inlineStr">
         <is>
           <t>hours per week x</t>
         </is>
       </c>
-      <c r="G32" s="10" t="n">
-        <v>13</v>
-      </c>
+      <c r="G32" s="10" t="n"/>
       <c r="H32" s="1" t="inlineStr">
         <is>
           <t>weeks =</t>
@@ -1289,9 +1255,7 @@
         </is>
       </c>
       <c r="C34" s="39" t="n"/>
-      <c r="D34" s="11" t="n">
-        <v>60</v>
-      </c>
+      <c r="D34" s="11" t="n"/>
       <c r="E34" s="12" t="inlineStr">
         <is>
           <t>Rate (RM) x</t>
